--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA418B9-BBB4-4B45-A84D-13F8E5F17AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>ID Player</t>
   </si>
@@ -45,19 +44,40 @@
   </si>
   <si>
     <t>Array</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"324015323942"</t>
+  </si>
+  <si>
+    <t>420000</t>
+  </si>
+  <si>
+    <t>"3243015323942"</t>
+  </si>
+  <si>
+    <t>"3241015323942"</t>
+  </si>
+  <si>
+    <t>"3240125323942"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,18 +384,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="15" width="14.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -410,8 +429,128 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1470633342361</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>147063342361</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1470633442361</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1470623342361</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="360" verticalDpi="360"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>ID Player</t>
   </si>
@@ -65,6 +65,105 @@
   </si>
   <si>
     <t>"3240125323942"</t>
+  </si>
+  <si>
+    <t>"32481471279"</t>
+  </si>
+  <si>
+    <t>"32481536287"</t>
+  </si>
+  <si>
+    <t>"32481621713"</t>
+  </si>
+  <si>
+    <t>"32484485054"</t>
+  </si>
+  <si>
+    <t>"32484971332"</t>
+  </si>
+  <si>
+    <t>"32485182945"</t>
+  </si>
+  <si>
+    <t>"32486124985"</t>
+  </si>
+  <si>
+    <t>"32487528842"</t>
+  </si>
+  <si>
+    <t>"32487549201"</t>
+  </si>
+  <si>
+    <t>"32487837792"</t>
+  </si>
+  <si>
+    <t>"32493016135"</t>
+  </si>
+  <si>
+    <t>"32493229880"</t>
+  </si>
+  <si>
+    <t>"32492850191"</t>
+  </si>
+  <si>
+    <t>"32493033328"</t>
+  </si>
+  <si>
+    <t>"32493180449"</t>
+  </si>
+  <si>
+    <t>"32495153565"</t>
+  </si>
+  <si>
+    <t>"32494606436"</t>
+  </si>
+  <si>
+    <t>"32495267373"</t>
+  </si>
+  <si>
+    <t>"32495740541"</t>
+  </si>
+  <si>
+    <t>"32495212382"</t>
+  </si>
+  <si>
+    <t>"32495732712"</t>
+  </si>
+  <si>
+    <t>"32498495966"</t>
+  </si>
+  <si>
+    <t>"32498801122"</t>
+  </si>
+  <si>
+    <t>"32506195299"</t>
+  </si>
+  <si>
+    <t>"32506476623"</t>
+  </si>
+  <si>
+    <t>"32506047004"</t>
+  </si>
+  <si>
+    <t>"32507291386"</t>
+  </si>
+  <si>
+    <t>"32510546011"</t>
+  </si>
+  <si>
+    <t>"32511356351"</t>
+  </si>
+  <si>
+    <t>"32510710475"</t>
+  </si>
+  <si>
+    <t>"32511490085"</t>
+  </si>
+  <si>
+    <t>"32518349762"</t>
+  </si>
+  <si>
+    <t>"32523841848"</t>
   </si>
 </sst>
 </file>
@@ -385,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A6" sqref="A6"/>
@@ -549,6 +648,468 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>149003779742</v>
+      </c>
+      <c r="B8" s="1">
+        <v>58000</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>149032842341</v>
+      </c>
+      <c r="B9" s="1">
+        <v>84000</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>148873749307</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57000</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>148760720115</v>
+      </c>
+      <c r="B11" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>148911318773</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12750</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>149038600722</v>
+      </c>
+      <c r="B13" s="1">
+        <v>49000</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>149040378366</v>
+      </c>
+      <c r="B14" s="1">
+        <v>84500</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>148907888323</v>
+      </c>
+      <c r="B15" s="1">
+        <v>50500</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>149043510264</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12500</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>145275329167</v>
+      </c>
+      <c r="B17" s="1">
+        <v>17500</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>147426967827</v>
+      </c>
+      <c r="B18" s="1">
+        <v>110000</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>144822338084</v>
+      </c>
+      <c r="B19" s="1">
+        <v>246000</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>147619929054</v>
+      </c>
+      <c r="B20" s="1">
+        <v>109000</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>147526526579</v>
+      </c>
+      <c r="B21" s="1">
+        <v>116000</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>147446634053</v>
+      </c>
+      <c r="B22" s="1">
+        <v>105000</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>143175031894</v>
+      </c>
+      <c r="B23" s="1">
+        <v>47000</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>148981819278</v>
+      </c>
+      <c r="B24" s="1">
+        <v>61500</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>145865375935</v>
+      </c>
+      <c r="B25" s="1">
+        <v>55000</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>148526053710</v>
+      </c>
+      <c r="B26" s="1">
+        <v>99500</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>142080534027</v>
+      </c>
+      <c r="B27" s="1">
+        <v>127000</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>147895689588</v>
+      </c>
+      <c r="B28" s="1">
+        <v>94500</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>148516137026</v>
+      </c>
+      <c r="B29" s="1">
+        <v>104000</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>149064347284</v>
+      </c>
+      <c r="B30" s="1">
+        <v>18250</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>145247695212</v>
+      </c>
+      <c r="B31" s="1">
+        <v>193000</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>144307835464</v>
+      </c>
+      <c r="B32" s="1">
+        <v>192000</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>144423047314</v>
+      </c>
+      <c r="B33" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>148721202447</v>
+      </c>
+      <c r="B34" s="1">
+        <v>60500</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>147363275760</v>
+      </c>
+      <c r="B35" s="1">
+        <v>95500</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>146667838991</v>
+      </c>
+      <c r="B36" s="1">
+        <v>129000</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>147362648401</v>
+      </c>
+      <c r="B37" s="1">
+        <v>113000</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>145810481036</v>
+      </c>
+      <c r="B38" s="1">
+        <v>146000</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>148890778574</v>
+      </c>
+      <c r="B39" s="1">
+        <v>65500</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>146590117611</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17250</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
